--- a/tests/fixtures/verification/cases/semantic/00028/00028-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00028/00028-wc_lang.xlsx
@@ -2982,7 +2982,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3213,7 +3213,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3470,7 +3470,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3823,7 +3823,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4120,7 +4120,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4400,7 +4400,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4645,7 +4645,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4916,7 +4916,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5284,7 +5284,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5511,7 +5511,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6053,7 +6053,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6384,7 +6384,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6558,7 +6558,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6903,7 +6903,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7309,7 +7309,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7604,7 +7604,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7986,7 +7986,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8168,7 +8168,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8356,7 +8356,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8576,7 +8576,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9085,7 +9085,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9464,7 +9464,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9737,7 +9737,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
